--- a/report.xlsx
+++ b/report.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - IT аналитик</t>
+          <t>Средняя зарплата - Программист</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Количество вакансий - IT аналитик</t>
+          <t>Количество вакансий - Программист</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>58750</v>
+        <v>43770</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0</v>
+        <v>50412</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>46699</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="5">
@@ -534,13 +534,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>36250</v>
+        <v>50570</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="6">
@@ -551,13 +551,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75625</v>
+        <v>55770</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="7">
@@ -568,13 +568,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>95750</v>
+        <v>57960</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>4</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="8">
@@ -585,13 +585,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0</v>
+        <v>58804</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="9">
@@ -602,13 +602,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>115000</v>
+        <v>62384</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="10">
@@ -619,13 +619,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0</v>
+        <v>62322</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>89166</v>
+        <v>66817</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>3</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="12">
@@ -653,13 +653,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0</v>
+        <v>72460</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="13">
@@ -670,13 +670,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>120000</v>
+        <v>76879</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="14">
@@ -687,13 +687,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>126875</v>
+        <v>85300</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>8</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="15">
@@ -704,13 +704,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>110500</v>
+        <v>89791</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>5</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="16">
@@ -721,13 +721,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>101666</v>
+        <v>100987</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="17">
@@ -738,13 +738,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0</v>
+        <v>116651</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -443,9 +443,9 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,7 +461,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Программист</t>
+          <t>Средняя зарплата - Аналитик</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Программист</t>
+          <t>Количество вакансий - Аналитик</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43770</v>
+        <v>40641</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>317</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>50412</v>
+        <v>48428</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2460</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46699</v>
+        <v>48109</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2066</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -534,13 +534,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>50570</v>
+        <v>49577</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>3614</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
@@ -551,13 +551,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>55770</v>
+        <v>52794</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
@@ -568,13 +568,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>57960</v>
+        <v>58341</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>4966</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8">
@@ -585,13 +585,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>58804</v>
+        <v>57004</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>5990</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">
@@ -602,13 +602,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>62384</v>
+        <v>58768</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>5492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -619,13 +619,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>62322</v>
+        <v>53326</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>5375</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>66817</v>
+        <v>54236</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>7219</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12">
@@ -653,13 +653,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>72460</v>
+        <v>56558</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>8105</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13">
@@ -670,13 +670,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>76879</v>
+        <v>61080</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>10062</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="14">
@@ -687,13 +687,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>85300</v>
+        <v>71288</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>9016</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="15">
@@ -704,13 +704,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>89791</v>
+        <v>80145</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>7113</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="16">
@@ -721,13 +721,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>100987</v>
+        <v>87473</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3466</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17">
@@ -738,13 +738,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>116651</v>
+        <v>91340</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1115</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,9 +443,9 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,7 +461,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Программист</t>
+          <t>Средняя зарплата - Аналитик</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -471,246 +471,246 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Программист</t>
+          <t>Количество вакансий - Аналитик</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>38916</v>
+        <v>1983</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43770</v>
+        <v>41304</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2196</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>317</v>
+        <v>38353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43646</v>
+        <v>7833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>50412</v>
+        <v>42967</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>17549</v>
+        <v>352</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2460</v>
+        <v>41907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>42492</v>
+        <v>16022</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46699</v>
+        <v>375738</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>17709</v>
+        <v>708</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2066</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43846</v>
+        <v>33321</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>50570</v>
+        <v>41317</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>29093</v>
+        <v>1373</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>3614</v>
+        <v>43250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>47451</v>
+        <v>53562</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>55770</v>
+        <v>44449</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>36700</v>
+        <v>2235</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4422</v>
+        <v>53936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>48243</v>
+        <v>75070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>57960</v>
+        <v>48411</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44153</v>
+        <v>3061</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>4966</v>
+        <v>56297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>51510</v>
+        <v>52889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>58804</v>
+        <v>44811</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>59954</v>
+        <v>1709</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>5990</v>
+        <v>53320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>50658</v>
+        <v>93494</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>62384</v>
+        <v>44657</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>66837</v>
+        <v>3540</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>5492</v>
+        <v>52702</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>52696</v>
+        <v>142458</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>62322</v>
+        <v>46448</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>70039</v>
+        <v>5453</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>5375</v>
+        <v>60252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>62675</v>
+        <v>173897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>66817</v>
+        <v>47962</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>75145</v>
+        <v>5876</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>7219</v>
+        <v>63325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>60935</v>
+        <v>234019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>72460</v>
+        <v>53534</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>82823</v>
+        <v>6995</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>8105</v>
+        <v>62878</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>58335</v>
+        <v>259571</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>76879</v>
+        <v>49064</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>131701</v>
+        <v>8332</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>10062</v>
+        <v>63348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>69467</v>
+        <v>284763</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>85300</v>
+        <v>52033</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>115086</v>
+        <v>8643</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>9016</v>
+        <v>60275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>73431</v>
+        <v>332460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>89791</v>
+        <v>61627</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>102243</v>
+        <v>12466</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>7113</v>
+        <v>62488</v>
       </c>
     </row>
     <row r="16">
@@ -718,33 +718,101 @@
         <v>2021</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>82690</v>
+        <v>391464</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>100987</v>
+        <v>61777</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>57623</v>
+        <v>16770</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>3466</v>
+        <v>65465</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>91795</v>
+        <v>517670</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>116651</v>
+        <v>69953</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>18294</v>
+        <v>21667</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1115</v>
+        <v>78416</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>535956</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>79357</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>27273</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>84286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>489472</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>89711</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>28659</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>95550</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>287915</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>107333</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>17962</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>115281</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>91142</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>128962</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>6638</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>139130</v>
       </c>
     </row>
   </sheetData>
@@ -758,20 +826,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -795,206 +856,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>65286</v>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>32.46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>76970</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>11.97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>60962</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Красноярск</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46922</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>2.37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>62254</v>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>2.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>47662</v>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Ростов-на-Дону</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>2.09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>51644</v>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>52580</v>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Челябинск</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>51265</v>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>Самара</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Пермь</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>48089</v>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Воронеж</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>1.41%</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
